--- a/测试计划.xlsx
+++ b/测试计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC02DB1-D6BA-45ED-94C0-69CC8F190B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DB15C8-AD40-4E27-9ADA-931483AF9344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection activeCell="A11" sqref="A11:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -417,6 +417,41 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
